--- a/LinkedList/Übersicht_Aufwandsklassen_Listen.xlsx
+++ b/LinkedList/Übersicht_Aufwandsklassen_Listen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Desktop\HTL\SWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBE8F7-7CC7-4DE7-975B-C7FD6CC7DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFAB109-7846-461A-9566-1D293389A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>ArrayList</t>
   </si>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +783,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -810,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
